--- a/artfynd/A 51438-2018.xlsx
+++ b/artfynd/A 51438-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>121111</v>
+        <v>55915885</v>
       </c>
       <c r="B2" t="n">
-        <v>103225</v>
+        <v>103226</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -713,7 +713,22 @@
           <t>(L.) W. P. C. Barton</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Gyllerboda, 470 m NV om, Upl</t>
@@ -726,7 +741,7 @@
         <v>6671459.062336657</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -748,14 +763,9 @@
           <t>Vendel</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>C-Tie-0309</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>2015-11-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +775,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2001-12-31</t>
+          <t>2015-11-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -775,7 +785,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Pia Östensson</t>
+          <t>9 florala + 31 vegetativa skott. Denna lokal bör vara densamma som floraväktarlokalen "C-Tie-0309 Gyllerboda, 450 m V om, Tierp s:n, Upl", men nu med vettiga koordinater! Följearter: husmossa, väggmossa, lingon, vårfryle, blåbär.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,23 +796,29 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Lingontallskog</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Talldominerad åsbarrskog</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Floraväkterisamordn C-län</t>
+          <t>Sebastian Sundberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Floraväkterisamordn C-län</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Sebastian Sundberg, Owe Rosengren</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
